--- a/Catagory Internship Data Outline (Alexa).xlsx
+++ b/Catagory Internship Data Outline (Alexa).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alayshah/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alayshah/Desktop/HACKRU/skill-prudential-internship-recommendation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5358F4DF-2A42-8746-9E80-4BBD783880AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFBD7FC-5F83-4747-8B13-1EB1C55519CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="766" xr2:uid="{7401F4DB-C973-8543-998D-7B4EDFD65EC9}"/>
+    <workbookView xWindow="12240" yWindow="0" windowWidth="16560" windowHeight="18000" tabRatio="766" xr2:uid="{7401F4DB-C973-8543-998D-7B4EDFD65EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="14" r:id="rId1"/>
@@ -2210,28 +2210,16 @@
     <t>ACTUARIAL</t>
   </si>
   <si>
-    <t>ASSET MANAGEMENT</t>
-  </si>
-  <si>
-    <t>DATA ANALYTICS</t>
-  </si>
-  <si>
     <t>RISK</t>
   </si>
   <si>
     <t>FINANCE</t>
   </si>
   <si>
-    <t>INTERNAL AUDIT</t>
-  </si>
-  <si>
     <t>MARKETING</t>
   </si>
   <si>
     <t>OPERATIONS</t>
-  </si>
-  <si>
-    <t>PROJECT MANAGEMENT</t>
   </si>
   <si>
     <t>SALES</t>
@@ -2412,6 +2400,18 @@
   </si>
   <si>
     <t>Internship or FULL_TIME Role</t>
+  </si>
+  <si>
+    <t>ASSET_MANAGEMENT</t>
+  </si>
+  <si>
+    <t>DATA_ANALYTICS</t>
+  </si>
+  <si>
+    <t>INTERNAL_AUDIT</t>
+  </si>
+  <si>
+    <t>PROJECT_MANAGEMENT</t>
   </si>
 </sst>
 </file>
@@ -2912,8 +2912,8 @@
   </sheetPr>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="61" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2923,12 +2923,12 @@
     <col min="3" max="4" width="53.6640625" style="1" customWidth="1"/>
     <col min="5" max="7" width="11" style="1"/>
     <col min="8" max="8" width="53.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="85.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="64" style="1" customWidth="1"/>
-    <col min="11" max="11" width="36.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="46.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="44" style="1" customWidth="1"/>
-    <col min="14" max="14" width="33.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="46.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="85.5" style="1" customWidth="1"/>
     <col min="15" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>5</v>
@@ -2958,22 +2958,22 @@
         <v>2</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="400" customHeight="1" x14ac:dyDescent="0.2">
@@ -2987,37 +2987,37 @@
         <v>11</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E2" s="10">
         <v>2020</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="400" customHeight="1" x14ac:dyDescent="0.2">
@@ -3031,37 +3031,37 @@
         <v>211</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E3" s="10">
         <v>2020</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>213</v>
       </c>
       <c r="I3" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="400" customHeight="1" x14ac:dyDescent="0.2">
@@ -3075,37 +3075,37 @@
         <v>220</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E4" s="10">
         <v>2020</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>224</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="400" customHeight="1" x14ac:dyDescent="0.2">
@@ -3119,42 +3119,42 @@
         <v>228</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E5" s="10">
         <v>2020</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>229</v>
       </c>
       <c r="I5" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="400" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>26</v>
@@ -3163,42 +3163,42 @@
         <v>19</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E6" s="10">
         <v>2020</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="15">
+        <v>43730</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="10">
-        <v>3.3</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="15">
-        <v>43730</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="400" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>232</v>
@@ -3207,42 +3207,42 @@
         <v>233</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E7" s="10">
         <v>2020</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>234</v>
       </c>
       <c r="I7" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="M7" s="15">
+        <v>43730</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="N7" s="15">
-        <v>43730</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="400" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>240</v>
@@ -3251,42 +3251,42 @@
         <v>241</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E8" s="10">
         <v>2020</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>242</v>
       </c>
       <c r="I8" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="M8" s="15">
+        <v>43730</v>
+      </c>
+      <c r="N8" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="N8" s="15">
-        <v>43730</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="400" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>247</v>
@@ -3295,42 +3295,42 @@
         <v>248</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E9" s="10">
         <v>2020</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>251</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="M9" s="15">
+        <v>43730</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="N9" s="15">
-        <v>43730</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="400" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>256</v>
@@ -3339,13 +3339,13 @@
         <v>257</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E10" s="10">
         <v>2020</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>258</v>
@@ -3354,27 +3354,27 @@
         <v>259</v>
       </c>
       <c r="I10" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="M10" s="15">
+        <v>43730</v>
+      </c>
+      <c r="N10" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="N10" s="15">
-        <v>43730</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="400" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>263</v>
@@ -3383,13 +3383,13 @@
         <v>264</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E11" s="10">
         <v>2020</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>258</v>
@@ -3398,27 +3398,27 @@
         <v>265</v>
       </c>
       <c r="I11" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="M11" s="15">
+        <v>43730</v>
+      </c>
+      <c r="N11" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="N11" s="15">
-        <v>43730</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="400" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>268</v>
@@ -3427,13 +3427,13 @@
         <v>269</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E12" s="10">
         <v>2020</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>258</v>
@@ -3442,27 +3442,27 @@
         <v>270</v>
       </c>
       <c r="I12" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="M12" s="15">
+        <v>43730</v>
+      </c>
+      <c r="N12" s="10" t="s">
         <v>271</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="N12" s="15">
-        <v>43730</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="400" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>275</v>
@@ -3471,42 +3471,42 @@
         <v>288</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E13" s="10">
         <v>2020</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>277</v>
       </c>
       <c r="I13" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="M13" s="15">
+        <v>43730</v>
+      </c>
+      <c r="N13" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="N13" s="15">
-        <v>43730</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="400" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>280</v>
@@ -3515,42 +3515,42 @@
         <v>281</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E14" s="10">
         <v>2020</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>284</v>
       </c>
       <c r="I14" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M14" s="15">
+        <v>43733</v>
+      </c>
+      <c r="N14" s="10" t="s">
         <v>285</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="N14" s="15">
-        <v>43733</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="356" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>289</v>
@@ -3559,40 +3559,40 @@
         <v>290</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>291</v>
       </c>
       <c r="I15" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="M15" s="15">
+        <v>43733</v>
+      </c>
+      <c r="N15" s="10" t="s">
         <v>292</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="N15" s="15">
-        <v>43733</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="388" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>27</v>
@@ -3601,42 +3601,42 @@
         <v>29</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E16" s="11">
         <v>2020</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="13">
+        <v>43730</v>
+      </c>
+      <c r="N16" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16" s="13">
-        <v>43730</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>37</v>
@@ -3645,42 +3645,42 @@
         <v>38</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E17" s="10">
         <v>2020</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="I17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>295</v>
@@ -3689,42 +3689,42 @@
         <v>296</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E18" s="10">
         <v>2020</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>297</v>
       </c>
       <c r="I18" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="356" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>54</v>
@@ -3733,42 +3733,42 @@
         <v>48</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E19" s="11">
         <v>2020</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>49</v>
       </c>
       <c r="I19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="13">
+        <v>43730</v>
+      </c>
+      <c r="N19" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="13">
-        <v>43730</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="306" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>55</v>
@@ -3777,42 +3777,42 @@
         <v>56</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E20" s="11">
         <v>2020</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>57</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="13">
+        <v>43730</v>
+      </c>
+      <c r="N20" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20" s="13">
-        <v>43730</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>63</v>
@@ -3821,42 +3821,42 @@
         <v>64</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E21" s="10">
         <v>2020</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>65</v>
       </c>
       <c r="I21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="15">
+        <v>43747</v>
+      </c>
+      <c r="N21" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="15">
-        <v>43747</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="356" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>301</v>
@@ -3865,42 +3865,42 @@
         <v>302</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E22" s="10">
         <v>2020</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>303</v>
       </c>
       <c r="I22" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="15">
+        <v>43747</v>
+      </c>
+      <c r="N22" s="10" t="s">
         <v>304</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22" s="15">
-        <v>43747</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="272" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>76</v>
@@ -3909,42 +3909,42 @@
         <v>69</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E23" s="11">
         <v>2020</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>70</v>
       </c>
       <c r="I23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" s="13">
+        <v>43730</v>
+      </c>
+      <c r="N23" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="N23" s="13">
-        <v>43730</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>77</v>
@@ -3953,42 +3953,42 @@
         <v>78</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E24" s="11">
         <v>2020</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>79</v>
       </c>
       <c r="I24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" s="13">
+        <v>43730</v>
+      </c>
+      <c r="N24" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="N24" s="13">
-        <v>43730</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>83</v>
@@ -3997,42 +3997,42 @@
         <v>84</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E25" s="11">
         <v>2020</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>85</v>
       </c>
       <c r="I25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="13">
+        <v>43749</v>
+      </c>
+      <c r="N25" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N25" s="13">
-        <v>43749</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>88</v>
@@ -4041,42 +4041,42 @@
         <v>89</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E26" s="11">
         <v>2020</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>90</v>
       </c>
       <c r="I26" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M26" s="13">
+        <v>43730</v>
+      </c>
+      <c r="N26" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="N26" s="13">
-        <v>43730</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="306" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>95</v>
@@ -4085,42 +4085,42 @@
         <v>98</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E27" s="11">
         <v>2020</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>99</v>
       </c>
       <c r="I27" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M27" s="13">
+        <v>43751</v>
+      </c>
+      <c r="N27" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="N27" s="13">
-        <v>43751</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>104</v>
@@ -4129,42 +4129,42 @@
         <v>105</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E28" s="11">
         <v>2020</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>108</v>
       </c>
       <c r="I28" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" s="13">
+        <v>43766</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="N28" s="13">
-        <v>43766</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="388" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>114</v>
@@ -4173,42 +4173,42 @@
         <v>115</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E29" s="11">
         <v>2020</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>118</v>
       </c>
       <c r="I29" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="13">
+        <v>43749</v>
+      </c>
+      <c r="N29" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="N29" s="13">
-        <v>43749</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="306" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>125</v>
@@ -4217,42 +4217,42 @@
         <v>126</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E30" s="11">
         <v>2020</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>127</v>
       </c>
       <c r="I30" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="M30" s="13">
+        <v>43751</v>
+      </c>
+      <c r="N30" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="N30" s="13">
-        <v>43751</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="404" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>135</v>
@@ -4261,42 +4261,42 @@
         <v>136</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E31" s="11">
         <v>2020</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>139</v>
       </c>
       <c r="I31" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="13">
+        <v>43751</v>
+      </c>
+      <c r="N31" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N31" s="13">
-        <v>43751</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>143</v>
@@ -4305,42 +4305,42 @@
         <v>144</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E32" s="10">
         <v>2020</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>145</v>
       </c>
       <c r="I32" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M32" s="15">
+        <v>43766</v>
+      </c>
+      <c r="N32" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="N32" s="15">
-        <v>43766</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>150</v>
@@ -4349,42 +4349,42 @@
         <v>151</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E33" s="10">
         <v>2020</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>160</v>
       </c>
       <c r="I33" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="M33" s="15">
+        <v>43754</v>
+      </c>
+      <c r="N33" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="N33" s="15">
-        <v>43754</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>158</v>
@@ -4393,42 +4393,42 @@
         <v>159</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E34" s="10">
         <v>2020</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>161</v>
       </c>
       <c r="I34" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="M34" s="15">
+        <v>43754</v>
+      </c>
+      <c r="N34" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="N34" s="15">
-        <v>43754</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>165</v>
@@ -4437,42 +4437,42 @@
         <v>166</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E35" s="10">
         <v>2020</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>170</v>
       </c>
       <c r="I35" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M35" s="15">
+        <v>43766</v>
+      </c>
+      <c r="N35" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="N35" s="15">
-        <v>43766</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>174</v>
@@ -4481,40 +4481,40 @@
         <v>175</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>176</v>
       </c>
       <c r="I36" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M36" s="15">
+        <v>43766</v>
+      </c>
+      <c r="N36" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="N36" s="15">
-        <v>43766</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>181</v>
@@ -4523,42 +4523,42 @@
         <v>183</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E37" s="10">
         <v>2020</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>186</v>
       </c>
       <c r="I37" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M37" s="15">
+        <v>43766</v>
+      </c>
+      <c r="N37" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="N37" s="15">
-        <v>43766</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>182</v>
@@ -4567,42 +4567,42 @@
         <v>190</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E38" s="10">
         <v>2020</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>193</v>
       </c>
       <c r="I38" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="M38" s="15">
+        <v>43766</v>
+      </c>
+      <c r="N38" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="N38" s="15">
-        <v>43766</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="388" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>198</v>
@@ -4611,42 +4611,42 @@
         <v>199</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E39" s="10">
         <v>2020</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>200</v>
       </c>
       <c r="I39" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="15">
+        <v>43751</v>
+      </c>
+      <c r="N39" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N39" s="15">
-        <v>43751</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>204</v>
@@ -4655,37 +4655,37 @@
         <v>205</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E40" s="10">
         <v>2020</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>206</v>
       </c>
       <c r="I40" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="M40" s="15">
+        <v>43751</v>
+      </c>
+      <c r="N40" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="N40" s="15">
-        <v>43751</v>
       </c>
     </row>
   </sheetData>
@@ -5786,7 +5786,7 @@
     <sheetView topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:M11"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6240,7 +6240,7 @@
         <v>292</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>293</v>
+        <v>66</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>33</v>
@@ -7227,6 +7227,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A2D851CF30C868459B818B9BB5A126CF" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5fef5ca6276db8828818d7513a175f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e0e25b54-18b0-47d3-8159-0f4b6feb5ed8" xmlns:ns4="26590cb6-d09c-4087-b4be-28fd037d20dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4952a8bc3052354c072d01c1e3608572" ns3:_="" ns4:_="">
     <xsd:import namespace="e0e25b54-18b0-47d3-8159-0f4b6feb5ed8"/>
@@ -7443,12 +7449,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{981F77E6-37FB-47C2-BCC8-2890E4891854}">
   <ds:schemaRefs>
@@ -7458,6 +7458,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D57E63A-D346-415E-A079-0F5D97AEC517}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="e0e25b54-18b0-47d3-8159-0f4b6feb5ed8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="26590cb6-d09c-4087-b4be-28fd037d20dc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{153D2472-BF7F-4E27-AFCE-F154EEE22B73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7474,21 +7491,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D57E63A-D346-415E-A079-0F5D97AEC517}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="e0e25b54-18b0-47d3-8159-0f4b6feb5ed8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="26590cb6-d09c-4087-b4be-28fd037d20dc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>